--- a/pred_ohlcv/54_21/2020-01-12 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-133694.9871</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-134540.9908</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-202917.1003</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-234925.2268000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-319485.8875000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-383635.6861</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-597671.9730334239</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-598768.8481334238</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-598768.8481334238</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-598339.8481334238</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-600347.9661334238</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-596272.6503334239</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-591470.0510334239</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-609437.6949334239</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-608752.7568334239</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-603773.3684334238</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-610392.3085334238</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-610291.9960334238</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-611109.8474334239</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-611101.0767334239</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-611101.0767334239</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-599471.5013334239</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-599471.5013334239</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-603147.4490334239</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-603137.4490334239</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-598183.8691334239</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-591175.8695539343</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-592177.8587539343</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-592177.8587539343</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-632393.4098539343</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-133694.9871</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-134540.9908</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-202917.1003</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-234925.2268000001</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-319485.8875000001</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-383635.6861</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-599126.6483334239</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-597671.9730334239</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-598970.9730334239</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-598768.8481334238</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-600347.9661334238</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-591470.0510334239</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-609437.6949334239</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-608752.7568334239</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-608752.7568334239</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-603773.3684334238</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-609574.4571334238</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-610392.3085334238</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-610291.9960334238</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-611109.8474334239</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-611101.0767334239</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-611101.0767334239</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-599471.5013334239</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-599471.5013334239</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-603147.4490334239</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-603137.4490334239</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-598183.8691334239</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-591175.8695539343</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-592177.8587539343</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-592177.8587539343</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-632393.4098539343</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
